--- a/test/templates/test-tables.xlsx
+++ b/test/templates/test-tables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F618D-23B6-4FE0-BDA8-7C8BFEEE9508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -30,47 +36,47 @@
     <t>Age</t>
   </si>
   <si>
-    <t>${table:ages.name}</t>
-  </si>
-  <si>
-    <t>${table:ages.age}</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
-    <t>${table:scores.score}</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
   <si>
-    <t>${table:coords.x}</t>
-  </si>
-  <si>
-    <t>${table:coords.y}</t>
-  </si>
-  <si>
-    <t>${table:dates.name}</t>
-  </si>
-  <si>
-    <t>${table:dates.dates}</t>
-  </si>
-  <si>
     <t>Dates list</t>
   </si>
   <si>
-    <t>${table:scores.name}</t>
+    <t>{table:ages.name}</t>
+  </si>
+  <si>
+    <t>{table:ages.age}</t>
+  </si>
+  <si>
+    <t>{table:scores.name}</t>
+  </si>
+  <si>
+    <t>{table:scores.score}</t>
+  </si>
+  <si>
+    <t>{table:coords.x}</t>
+  </si>
+  <si>
+    <t>{table:coords.y}</t>
+  </si>
+  <si>
+    <t>{table:dates.name}</t>
+  </si>
+  <si>
+    <t>{table:dates.dates}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -163,6 +169,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -487,31 +501,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20" thickBot="1">
+    <row r="2" spans="2:7" ht="20.25" thickBot="1">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="14" thickTop="1"/>
+    <row r="3" spans="2:7" ht="13.5" thickTop="1"/>
     <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>101</v>
@@ -532,21 +546,21 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>102</v>
@@ -554,18 +568,18 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>103</v>
@@ -576,15 +590,15 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>104</v>
@@ -595,7 +609,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
